--- a/data/modified_file.xlsx
+++ b/data/modified_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gpain/Documents/Work_Dashboards/Maryland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4539FEA-E3B3-3744-BF22-2235AD2D9EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADDEDD5-3D84-5841-83DC-EE9BA20E8A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="14900" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organizations" sheetId="1" r:id="rId1"/>
@@ -2599,7 +2599,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -2663,16 +2663,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2978,20 +2984,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="12" width="27" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" customWidth="1"/>
-    <col min="14" max="14" width="30.1640625" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" customWidth="1"/>
-    <col min="16" max="16" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="39.5" style="7" customWidth="1"/>
+    <col min="26" max="26" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="36" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="35" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="18" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="24" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:82" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3064,7 +3146,7 @@
       <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="Z1" s="1" t="s">
@@ -3239,7 +3321,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:82" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -3303,7 +3385,7 @@
       <c r="X2" t="s">
         <v>92</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Z2" t="s">
@@ -3358,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:82" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -3413,7 +3495,7 @@
       <c r="X3" t="s">
         <v>109</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Z3" t="s">
@@ -3441,7 +3523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -3502,7 +3584,7 @@
       <c r="X4" t="s">
         <v>123</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Z4" t="s">
@@ -3548,7 +3630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -3609,7 +3691,7 @@
       <c r="X5" t="s">
         <v>141</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Z5" t="s">
@@ -3667,7 +3749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -3722,7 +3804,7 @@
       <c r="X6" t="s">
         <v>123</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="7" t="s">
         <v>149</v>
       </c>
       <c r="Z6" t="s">
@@ -3786,7 +3868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:82" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -3841,7 +3923,7 @@
       <c r="X7" t="s">
         <v>109</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Z7" t="s">
@@ -3857,7 +3939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -3921,7 +4003,7 @@
       <c r="X8" t="s">
         <v>141</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Z8" t="s">
@@ -3979,7 +4061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -4043,7 +4125,7 @@
       <c r="X9" t="s">
         <v>141</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="7" t="s">
         <v>149</v>
       </c>
       <c r="AC9">
@@ -4098,7 +4180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:82" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -4153,7 +4235,7 @@
       <c r="X10" t="s">
         <v>141</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Y10" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Z10" t="s">
@@ -4181,7 +4263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -4236,7 +4318,7 @@
       <c r="X11" t="s">
         <v>123</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Y11" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Z11" t="s">
@@ -4294,7 +4376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -4349,7 +4431,7 @@
       <c r="X12" t="s">
         <v>123</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Y12" s="7" t="s">
         <v>149</v>
       </c>
       <c r="Z12" t="s">
@@ -4386,7 +4468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:82" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -4438,7 +4520,7 @@
       <c r="X13" t="s">
         <v>123</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Y13" s="7" t="s">
         <v>149</v>
       </c>
       <c r="AU13" t="s">
@@ -4451,7 +4533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -4497,7 +4579,7 @@
       <c r="X14" t="s">
         <v>123</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y14" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Z14" t="s">
@@ -4546,7 +4628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -4589,7 +4671,7 @@
       <c r="X15" t="s">
         <v>123</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Y15" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Z15" t="s">
@@ -4605,7 +4687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:82" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -4669,7 +4751,7 @@
       <c r="X16" t="s">
         <v>236</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Y16" s="7" t="s">
         <v>149</v>
       </c>
       <c r="Z16" t="s">
@@ -4724,7 +4806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -4782,7 +4864,7 @@
       <c r="X17" t="s">
         <v>92</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y17" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Z17" t="s">
@@ -4819,7 +4901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:81" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -4880,7 +4962,7 @@
       <c r="X18" t="s">
         <v>141</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Y18" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Z18" t="s">
@@ -4941,7 +5023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -4999,7 +5081,7 @@
       <c r="X19" t="s">
         <v>123</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Y19" s="7" t="s">
         <v>149</v>
       </c>
       <c r="Z19" t="s">
@@ -5051,7 +5133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -5109,7 +5191,7 @@
       <c r="X20" t="s">
         <v>236</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Y20" s="7" t="s">
         <v>149</v>
       </c>
       <c r="Z20" t="s">
@@ -5167,7 +5249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -5225,7 +5307,7 @@
       <c r="X21" t="s">
         <v>141</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Y21" s="7" t="s">
         <v>149</v>
       </c>
       <c r="AC21">
@@ -5301,7 +5383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -5356,7 +5438,7 @@
       <c r="X22" t="s">
         <v>236</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Y22" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Z22" t="s">
@@ -5420,7 +5502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -5478,7 +5560,7 @@
       <c r="X23" t="s">
         <v>123</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Y23" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Z23" t="s">
@@ -5512,7 +5594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -5570,7 +5652,7 @@
       <c r="X24" t="s">
         <v>236</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y24" s="7" t="s">
         <v>149</v>
       </c>
       <c r="Z24" t="s">
@@ -5619,7 +5701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:81" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -5677,7 +5759,7 @@
       <c r="X25" t="s">
         <v>236</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y25" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Z25" t="s">
@@ -5693,7 +5775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:81" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -5754,7 +5836,7 @@
       <c r="X26" t="s">
         <v>236</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Y26" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Z26" t="s">
@@ -5818,7 +5900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -5876,7 +5958,7 @@
       <c r="X27" t="s">
         <v>236</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Y27" s="7" t="s">
         <v>334</v>
       </c>
       <c r="Z27" t="s">
@@ -5892,7 +5974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:81" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -5944,7 +6026,7 @@
       <c r="X28" t="s">
         <v>109</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Y28" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Z28" t="s">
@@ -6002,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -6060,7 +6142,7 @@
       <c r="X29" t="s">
         <v>123</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Y29" s="7" t="s">
         <v>149</v>
       </c>
       <c r="Z29" t="s">
@@ -6097,7 +6179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -6164,7 +6246,7 @@
       <c r="X30" t="s">
         <v>141</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Y30" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Z30" t="s">
@@ -6222,7 +6304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:81" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -6280,7 +6362,7 @@
       <c r="X31" t="s">
         <v>109</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Y31" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Z31" t="s">
@@ -6332,7 +6414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -6390,7 +6472,7 @@
       <c r="X32" t="s">
         <v>141</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Y32" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Z32" t="s">
@@ -6487,7 +6569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -6545,7 +6627,7 @@
       <c r="X33" t="s">
         <v>141</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Y33" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Z33" t="s">
@@ -6582,7 +6664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:81" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -6640,7 +6722,7 @@
       <c r="X34" t="s">
         <v>141</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Y34" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Z34" t="s">
@@ -6698,7 +6780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -6756,7 +6838,7 @@
       <c r="X35" t="s">
         <v>141</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Y35" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Z35" t="s">
@@ -6817,7 +6899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -6866,7 +6948,7 @@
       <c r="X36" t="s">
         <v>123</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Y36" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Z36" t="s">
@@ -6924,7 +7006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -6982,7 +7064,7 @@
       <c r="X37" t="s">
         <v>141</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Y37" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Z37" t="s">
@@ -6998,7 +7080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:81" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -7053,7 +7135,7 @@
       <c r="X38" t="s">
         <v>123</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Y38" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Z38" t="s">
@@ -7111,7 +7193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:81" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -7163,7 +7245,7 @@
       <c r="X39" t="s">
         <v>141</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Y39" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Z39" t="s">
@@ -7221,7 +7303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:81" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -7261,7 +7343,7 @@
       <c r="X40" t="s">
         <v>123</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Y40" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Z40" t="s">
@@ -7277,7 +7359,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:81" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -7332,7 +7414,7 @@
       <c r="X41" t="s">
         <v>141</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Y41" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Z41" t="s">
@@ -7390,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:81" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -7445,7 +7527,7 @@
       <c r="X42" t="s">
         <v>123</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Y42" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Z42" t="s">
@@ -7482,7 +7564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:81" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -7525,7 +7607,7 @@
       <c r="X43" t="s">
         <v>92</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Y43" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Z43" t="s">
@@ -7571,7 +7653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="BU1" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>

--- a/data/modified_file.xlsx
+++ b/data/modified_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gpain/Documents/Work_Dashboards/Maryland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADDEDD5-3D84-5841-83DC-EE9BA20E8A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F9E9D8-36C9-5949-AEA9-9A35A0C832BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="14900" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organizations" sheetId="1" r:id="rId1"/>
@@ -2984,7 +2984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
@@ -7653,11 +7653,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CC48"/>
   <sheetViews>
-    <sheetView topLeftCell="BU1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="58.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -7909,64 +7914,67 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
-        <v>526</v>
+        <v>701</v>
       </c>
       <c r="D2">
-        <v>23375</v>
+        <v>23803</v>
       </c>
       <c r="E2" t="s">
-        <v>527</v>
+        <v>702</v>
       </c>
       <c r="I2" t="s">
-        <v>528</v>
+        <v>703</v>
       </c>
       <c r="M2" t="s">
-        <v>529</v>
+        <v>704</v>
       </c>
       <c r="O2" t="s">
-        <v>530</v>
+        <v>705</v>
       </c>
       <c r="Q2" t="s">
         <v>531</v>
       </c>
       <c r="S2" t="s">
-        <v>532</v>
+        <v>706</v>
       </c>
       <c r="T2" t="s">
         <v>533</v>
       </c>
+      <c r="U2" t="s">
+        <v>587</v>
+      </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="s">
         <v>534</v>
       </c>
       <c r="AA2" t="s">
-        <v>535</v>
+        <v>707</v>
       </c>
       <c r="AB2" t="s">
-        <v>536</v>
+        <v>653</v>
       </c>
       <c r="AC2" t="s">
-        <v>537</v>
+        <v>708</v>
       </c>
       <c r="AE2" t="s">
-        <v>538</v>
+        <v>661</v>
       </c>
       <c r="AI2" t="s">
-        <v>539</v>
+        <v>236</v>
       </c>
       <c r="AJ2" t="s">
         <v>540</v>
@@ -7975,19 +7983,25 @@
         <v>541</v>
       </c>
       <c r="AM2" t="s">
-        <v>542</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="AV2" t="s">
         <v>544</v>
       </c>
-      <c r="BB2" t="s">
-        <v>545</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>546</v>
+      <c r="BJ2" t="s">
+        <v>285</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>286</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>287</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
@@ -7995,28 +8009,46 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>802</v>
       </c>
       <c r="C3" t="s">
-        <v>548</v>
+        <v>803</v>
       </c>
       <c r="D3">
-        <v>24461</v>
+        <v>24519</v>
       </c>
       <c r="E3" t="s">
-        <v>549</v>
+        <v>804</v>
       </c>
       <c r="I3" t="s">
-        <v>550</v>
+        <v>805</v>
+      </c>
+      <c r="J3" t="s">
+        <v>806</v>
+      </c>
+      <c r="K3" t="s">
+        <v>807</v>
+      </c>
+      <c r="L3" t="s">
+        <v>808</v>
       </c>
       <c r="M3" t="s">
-        <v>551</v>
+        <v>809</v>
+      </c>
+      <c r="O3" t="s">
+        <v>311</v>
+      </c>
+      <c r="P3" t="s">
+        <v>810</v>
       </c>
       <c r="Q3" t="s">
         <v>531</v>
       </c>
       <c r="S3" t="s">
-        <v>552</v>
+        <v>811</v>
+      </c>
+      <c r="T3" t="s">
+        <v>533</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -8034,19 +8066,19 @@
         <v>534</v>
       </c>
       <c r="AA3" t="s">
-        <v>535</v>
+        <v>812</v>
       </c>
       <c r="AB3" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="AC3" t="s">
-        <v>554</v>
+        <v>813</v>
       </c>
       <c r="AE3" t="s">
         <v>538</v>
       </c>
       <c r="AI3" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="AJ3" t="s">
         <v>540</v>
@@ -8055,13 +8087,16 @@
         <v>541</v>
       </c>
       <c r="AM3" t="s">
-        <v>556</v>
+        <v>609</v>
       </c>
       <c r="AV3" t="s">
         <v>544</v>
       </c>
+      <c r="BB3" t="s">
+        <v>611</v>
+      </c>
       <c r="BC3" t="s">
-        <v>557</v>
+        <v>801</v>
       </c>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
@@ -8069,82 +8104,94 @@
         <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>802</v>
       </c>
       <c r="C4" t="s">
-        <v>558</v>
+        <v>803</v>
       </c>
       <c r="D4">
-        <v>24486</v>
+        <v>24519</v>
       </c>
       <c r="E4" t="s">
-        <v>559</v>
+        <v>804</v>
       </c>
       <c r="I4" t="s">
-        <v>560</v>
+        <v>805</v>
+      </c>
+      <c r="J4" t="s">
+        <v>806</v>
       </c>
       <c r="K4" t="s">
-        <v>561</v>
+        <v>807</v>
+      </c>
+      <c r="L4" t="s">
+        <v>808</v>
       </c>
       <c r="M4" t="s">
-        <v>562</v>
+        <v>809</v>
       </c>
       <c r="O4" t="s">
-        <v>563</v>
+        <v>311</v>
+      </c>
+      <c r="P4" t="s">
+        <v>810</v>
       </c>
       <c r="Q4" t="s">
         <v>531</v>
       </c>
       <c r="S4" t="s">
-        <v>564</v>
+        <v>811</v>
       </c>
       <c r="T4" t="s">
         <v>533</v>
       </c>
       <c r="V4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="s">
         <v>534</v>
       </c>
       <c r="AA4" t="s">
-        <v>565</v>
+        <v>812</v>
       </c>
       <c r="AB4" t="s">
         <v>566</v>
       </c>
       <c r="AC4" t="s">
-        <v>567</v>
+        <v>813</v>
       </c>
       <c r="AE4" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="AI4" t="s">
-        <v>569</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>130</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>131</v>
+        <v>539</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>540</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>609</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>644</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>580</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
@@ -8152,40 +8199,37 @@
         <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>364</v>
       </c>
       <c r="C5" t="s">
-        <v>570</v>
+        <v>725</v>
       </c>
       <c r="D5">
-        <v>23459</v>
+        <v>23342</v>
       </c>
       <c r="E5" t="s">
-        <v>571</v>
+        <v>726</v>
       </c>
       <c r="I5" t="s">
-        <v>550</v>
-      </c>
-      <c r="K5" t="s">
-        <v>561</v>
+        <v>727</v>
       </c>
       <c r="M5" t="s">
-        <v>572</v>
+        <v>311</v>
+      </c>
+      <c r="N5" t="s">
+        <v>728</v>
       </c>
       <c r="O5" t="s">
-        <v>573</v>
-      </c>
-      <c r="P5" t="s">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="Q5" t="s">
         <v>531</v>
       </c>
       <c r="S5" t="s">
-        <v>575</v>
+        <v>729</v>
       </c>
       <c r="T5" t="s">
-        <v>533</v>
+        <v>619</v>
       </c>
       <c r="U5" t="s">
         <v>576</v>
@@ -8194,31 +8238,28 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="s">
         <v>534</v>
       </c>
       <c r="AA5" t="s">
-        <v>577</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="AC5" t="s">
-        <v>537</v>
+        <v>672</v>
       </c>
       <c r="AE5" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="AI5" t="s">
-        <v>555</v>
+        <v>655</v>
       </c>
       <c r="AJ5" t="s">
         <v>540</v>
@@ -8227,10 +8268,10 @@
         <v>541</v>
       </c>
       <c r="AM5" t="s">
-        <v>578</v>
+        <v>609</v>
       </c>
       <c r="AO5" t="s">
-        <v>579</v>
+        <v>730</v>
       </c>
       <c r="AV5" t="s">
         <v>544</v>
@@ -8239,10 +8280,10 @@
         <v>580</v>
       </c>
       <c r="BC5" t="s">
-        <v>581</v>
+        <v>731</v>
       </c>
       <c r="BE5" t="s">
-        <v>582</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
@@ -8250,25 +8291,25 @@
         <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="D6">
-        <v>23457</v>
+        <v>24486</v>
       </c>
       <c r="E6" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="I6" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="K6" t="s">
         <v>561</v>
       </c>
       <c r="M6" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="O6" t="s">
         <v>563</v>
@@ -8277,79 +8318,55 @@
         <v>531</v>
       </c>
       <c r="S6" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="T6" t="s">
         <v>533</v>
       </c>
-      <c r="U6" t="s">
-        <v>587</v>
-      </c>
       <c r="V6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="X6">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="Y6">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="s">
         <v>534</v>
       </c>
       <c r="AA6" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="AB6" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="AC6" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="AE6" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="AI6" t="s">
-        <v>555</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>540</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>556</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>588</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>589</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>580</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="BJ6" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="BO6" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="BP6" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="BR6" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="BV6" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
@@ -8357,55 +8374,55 @@
         <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="D7">
-        <v>23388</v>
+        <v>23459</v>
       </c>
       <c r="E7" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="I7" t="s">
-        <v>593</v>
+        <v>550</v>
       </c>
       <c r="K7" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="M7" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="O7" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="P7" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="Q7" t="s">
         <v>531</v>
       </c>
       <c r="S7" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="T7" t="s">
         <v>533</v>
       </c>
       <c r="U7" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z7" t="s">
         <v>534</v>
@@ -8414,10 +8431,13 @@
         <v>577</v>
       </c>
       <c r="AB7" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="AC7" t="s">
-        <v>600</v>
+        <v>537</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>538</v>
       </c>
       <c r="AI7" t="s">
         <v>555</v>
@@ -8429,19 +8449,22 @@
         <v>541</v>
       </c>
       <c r="AM7" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="AO7" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="AV7" t="s">
-        <v>589</v>
+        <v>544</v>
       </c>
       <c r="BB7" t="s">
         <v>580</v>
       </c>
       <c r="BC7" t="s">
-        <v>602</v>
+        <v>581</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
@@ -8449,34 +8472,40 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="C8" t="s">
-        <v>603</v>
+        <v>656</v>
       </c>
       <c r="D8">
-        <v>23385</v>
+        <v>23354</v>
       </c>
       <c r="E8" t="s">
-        <v>604</v>
+        <v>657</v>
       </c>
       <c r="I8" t="s">
-        <v>605</v>
+        <v>658</v>
       </c>
       <c r="K8" t="s">
-        <v>606</v>
+        <v>659</v>
       </c>
       <c r="M8" t="s">
-        <v>551</v>
+        <v>660</v>
       </c>
       <c r="Q8" t="s">
         <v>531</v>
       </c>
       <c r="S8" t="s">
-        <v>607</v>
+        <v>575</v>
+      </c>
+      <c r="T8" t="s">
+        <v>533</v>
+      </c>
+      <c r="U8" t="s">
+        <v>599</v>
       </c>
       <c r="V8">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -8488,43 +8517,22 @@
         <v>0</v>
       </c>
       <c r="Z8" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="AA8" t="s">
-        <v>577</v>
+        <v>535</v>
       </c>
       <c r="AB8" t="s">
         <v>553</v>
       </c>
       <c r="AC8" t="s">
-        <v>608</v>
+        <v>537</v>
       </c>
       <c r="AE8" t="s">
-        <v>568</v>
+        <v>661</v>
       </c>
       <c r="AI8" t="s">
         <v>555</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>540</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>609</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>610</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>544</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>611</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
@@ -8532,85 +8540,13 @@
         <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>834</v>
       </c>
       <c r="C9" t="s">
-        <v>613</v>
+        <v>835</v>
       </c>
       <c r="D9">
-        <v>23361</v>
-      </c>
-      <c r="E9" t="s">
-        <v>614</v>
-      </c>
-      <c r="I9" t="s">
-        <v>615</v>
-      </c>
-      <c r="M9" t="s">
-        <v>616</v>
-      </c>
-      <c r="O9" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>617</v>
-      </c>
-      <c r="S9" t="s">
-        <v>618</v>
-      </c>
-      <c r="T9" t="s">
-        <v>619</v>
-      </c>
-      <c r="U9" t="s">
-        <v>599</v>
-      </c>
-      <c r="V9">
-        <v>1500</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>300</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>540</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>565</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>620</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>621</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>538</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>555</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>540</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>578</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>608</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>611</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>557</v>
+        <v>23378</v>
       </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
@@ -8621,55 +8557,82 @@
         <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D10">
-        <v>23363</v>
+        <v>23361</v>
       </c>
       <c r="E10" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="I10" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="M10" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="O10" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="Q10" t="s">
-        <v>531</v>
+        <v>617</v>
       </c>
       <c r="S10" t="s">
-        <v>625</v>
+        <v>618</v>
+      </c>
+      <c r="T10" t="s">
+        <v>619</v>
+      </c>
+      <c r="U10" t="s">
+        <v>599</v>
       </c>
       <c r="V10">
-        <v>120</v>
+        <v>1500</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
+      <c r="Z10" t="s">
+        <v>540</v>
+      </c>
       <c r="AA10" t="s">
-        <v>535</v>
+        <v>565</v>
       </c>
       <c r="AB10" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="AC10" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
       <c r="AE10" t="s">
         <v>538</v>
       </c>
       <c r="AI10" t="s">
         <v>555</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>540</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>578</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>608</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>611</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
@@ -8677,61 +8640,61 @@
         <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>354</v>
       </c>
       <c r="C11" t="s">
-        <v>626</v>
+        <v>717</v>
       </c>
       <c r="D11">
-        <v>23729</v>
+        <v>23553</v>
       </c>
       <c r="E11" t="s">
-        <v>627</v>
+        <v>718</v>
       </c>
       <c r="I11" t="s">
-        <v>628</v>
+        <v>719</v>
       </c>
       <c r="M11" t="s">
-        <v>629</v>
+        <v>720</v>
       </c>
       <c r="O11" t="s">
         <v>563</v>
       </c>
       <c r="Q11" t="s">
-        <v>531</v>
+        <v>617</v>
       </c>
       <c r="S11" t="s">
-        <v>575</v>
+        <v>721</v>
       </c>
       <c r="T11" t="s">
         <v>619</v>
       </c>
       <c r="U11" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="X11">
-        <v>7200</v>
+        <v>14000</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Z11" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="AA11" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="AB11" t="s">
-        <v>620</v>
+        <v>653</v>
       </c>
       <c r="AC11" t="s">
-        <v>537</v>
+        <v>714</v>
       </c>
       <c r="AE11" t="s">
         <v>538</v>
@@ -8746,19 +8709,22 @@
         <v>541</v>
       </c>
       <c r="AM11" t="s">
-        <v>609</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>630</v>
+        <v>578</v>
       </c>
       <c r="AV11" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="BB11" t="s">
         <v>580</v>
       </c>
       <c r="BC11" t="s">
-        <v>632</v>
+        <v>722</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>723</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
@@ -8766,58 +8732,58 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>633</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>634</v>
+        <v>583</v>
       </c>
       <c r="D12">
-        <v>23756</v>
+        <v>23457</v>
       </c>
       <c r="E12" t="s">
-        <v>635</v>
+        <v>584</v>
       </c>
       <c r="I12" t="s">
-        <v>636</v>
+        <v>550</v>
       </c>
       <c r="K12" t="s">
-        <v>637</v>
+        <v>561</v>
       </c>
       <c r="M12" t="s">
-        <v>638</v>
+        <v>585</v>
       </c>
       <c r="O12" t="s">
-        <v>639</v>
+        <v>563</v>
       </c>
       <c r="Q12" t="s">
         <v>531</v>
       </c>
       <c r="S12" t="s">
-        <v>640</v>
+        <v>586</v>
       </c>
       <c r="T12" t="s">
-        <v>619</v>
+        <v>533</v>
       </c>
       <c r="U12" t="s">
-        <v>641</v>
+        <v>587</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
       <c r="W12">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Y12">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="s">
         <v>534</v>
       </c>
       <c r="AA12" t="s">
-        <v>642</v>
+        <v>577</v>
       </c>
       <c r="AB12" t="s">
         <v>553</v>
@@ -8826,10 +8792,10 @@
         <v>537</v>
       </c>
       <c r="AE12" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="AI12" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="AJ12" t="s">
         <v>540</v>
@@ -8841,16 +8807,31 @@
         <v>556</v>
       </c>
       <c r="AO12" t="s">
-        <v>643</v>
+        <v>588</v>
       </c>
       <c r="AV12" t="s">
-        <v>644</v>
+        <v>589</v>
       </c>
       <c r="BB12" t="s">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="BC12" t="s">
-        <v>645</v>
+        <v>590</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>153</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>154</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>155</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
@@ -8926,31 +8907,34 @@
         <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
       <c r="D14">
-        <v>23354</v>
+        <v>23451</v>
       </c>
       <c r="E14" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="I14" t="s">
-        <v>658</v>
+        <v>605</v>
       </c>
       <c r="K14" t="s">
-        <v>659</v>
+        <v>561</v>
       </c>
       <c r="M14" t="s">
-        <v>660</v>
+        <v>683</v>
+      </c>
+      <c r="O14" t="s">
+        <v>684</v>
       </c>
       <c r="Q14" t="s">
         <v>531</v>
       </c>
       <c r="S14" t="s">
-        <v>575</v>
+        <v>685</v>
       </c>
       <c r="T14" t="s">
         <v>533</v>
@@ -8962,31 +8946,43 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="Z14" t="s">
         <v>534</v>
       </c>
       <c r="AA14" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="AB14" t="s">
-        <v>553</v>
+        <v>653</v>
       </c>
       <c r="AC14" t="s">
         <v>537</v>
       </c>
       <c r="AE14" t="s">
-        <v>661</v>
+        <v>538</v>
       </c>
       <c r="AI14" t="s">
-        <v>555</v>
+        <v>236</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>540</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>578</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
@@ -8994,37 +8990,40 @@
         <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
+        <v>446</v>
       </c>
       <c r="C15" t="s">
-        <v>662</v>
+        <v>814</v>
       </c>
       <c r="D15">
-        <v>23356</v>
+        <v>23562</v>
       </c>
       <c r="E15" t="s">
-        <v>663</v>
+        <v>815</v>
       </c>
       <c r="I15" t="s">
-        <v>658</v>
+        <v>550</v>
       </c>
       <c r="K15" t="s">
-        <v>659</v>
+        <v>816</v>
       </c>
       <c r="M15" t="s">
-        <v>664</v>
+        <v>551</v>
+      </c>
+      <c r="O15" t="s">
+        <v>563</v>
       </c>
       <c r="Q15" t="s">
         <v>531</v>
       </c>
       <c r="S15" t="s">
-        <v>665</v>
+        <v>817</v>
       </c>
       <c r="T15" t="s">
         <v>533</v>
       </c>
       <c r="U15" t="s">
-        <v>599</v>
+        <v>641</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -9042,16 +9041,16 @@
         <v>534</v>
       </c>
       <c r="AA15" t="s">
-        <v>535</v>
+        <v>794</v>
       </c>
       <c r="AB15" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="AC15" t="s">
-        <v>666</v>
+        <v>537</v>
       </c>
       <c r="AE15" t="s">
-        <v>538</v>
+        <v>654</v>
       </c>
       <c r="AI15" t="s">
         <v>555</v>
@@ -9063,19 +9062,16 @@
         <v>541</v>
       </c>
       <c r="AM15" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="AO15" t="s">
-        <v>667</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>544</v>
+        <v>818</v>
       </c>
       <c r="BB15" t="s">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="BC15" t="s">
-        <v>602</v>
+        <v>819</v>
       </c>
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
@@ -9083,37 +9079,40 @@
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>446</v>
       </c>
       <c r="C16" t="s">
-        <v>668</v>
+        <v>814</v>
       </c>
       <c r="D16">
-        <v>23358</v>
+        <v>23562</v>
       </c>
       <c r="E16" t="s">
-        <v>669</v>
+        <v>815</v>
       </c>
       <c r="I16" t="s">
-        <v>670</v>
+        <v>550</v>
       </c>
       <c r="K16" t="s">
-        <v>659</v>
+        <v>816</v>
       </c>
       <c r="M16" t="s">
         <v>551</v>
       </c>
+      <c r="O16" t="s">
+        <v>563</v>
+      </c>
       <c r="Q16" t="s">
         <v>531</v>
       </c>
       <c r="S16" t="s">
-        <v>671</v>
+        <v>817</v>
       </c>
       <c r="T16" t="s">
         <v>533</v>
       </c>
       <c r="U16" t="s">
-        <v>599</v>
+        <v>641</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -9131,16 +9130,16 @@
         <v>534</v>
       </c>
       <c r="AA16" t="s">
-        <v>535</v>
+        <v>794</v>
       </c>
       <c r="AB16" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="AC16" t="s">
-        <v>672</v>
+        <v>537</v>
       </c>
       <c r="AE16" t="s">
-        <v>538</v>
+        <v>654</v>
       </c>
       <c r="AI16" t="s">
         <v>555</v>
@@ -9152,19 +9151,25 @@
         <v>541</v>
       </c>
       <c r="AM16" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="AO16" t="s">
-        <v>673</v>
+        <v>837</v>
       </c>
       <c r="AV16" t="s">
-        <v>589</v>
+        <v>544</v>
       </c>
       <c r="BB16" t="s">
-        <v>580</v>
+        <v>542</v>
       </c>
       <c r="BC16" t="s">
-        <v>674</v>
+        <v>838</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>732</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:75" x14ac:dyDescent="0.2">
@@ -9172,64 +9177,70 @@
         <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>633</v>
+      </c>
+      <c r="C17" t="s">
+        <v>634</v>
       </c>
       <c r="D17">
-        <v>23351</v>
+        <v>23756</v>
       </c>
       <c r="E17" t="s">
-        <v>675</v>
+        <v>635</v>
       </c>
       <c r="I17" t="s">
-        <v>676</v>
+        <v>636</v>
       </c>
       <c r="K17" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
       <c r="M17" t="s">
-        <v>677</v>
+        <v>638</v>
+      </c>
+      <c r="O17" t="s">
+        <v>639</v>
       </c>
       <c r="Q17" t="s">
         <v>531</v>
       </c>
       <c r="S17" t="s">
-        <v>678</v>
+        <v>640</v>
       </c>
       <c r="T17" t="s">
-        <v>533</v>
+        <v>619</v>
       </c>
       <c r="U17" t="s">
-        <v>599</v>
+        <v>641</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="s">
         <v>534</v>
       </c>
       <c r="AA17" t="s">
-        <v>535</v>
+        <v>642</v>
       </c>
       <c r="AB17" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="AC17" t="s">
-        <v>666</v>
+        <v>537</v>
       </c>
       <c r="AE17" t="s">
-        <v>654</v>
+        <v>568</v>
       </c>
       <c r="AI17" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="AJ17" t="s">
         <v>540</v>
@@ -9238,19 +9249,19 @@
         <v>541</v>
       </c>
       <c r="AM17" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="AO17" t="s">
-        <v>679</v>
+        <v>643</v>
       </c>
       <c r="AV17" t="s">
-        <v>680</v>
+        <v>644</v>
       </c>
       <c r="BB17" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="BC17" t="s">
-        <v>557</v>
+        <v>645</v>
       </c>
     </row>
     <row r="18" spans="1:75" x14ac:dyDescent="0.2">
@@ -9258,70 +9269,67 @@
         <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>709</v>
       </c>
       <c r="C18" t="s">
-        <v>681</v>
+        <v>710</v>
       </c>
       <c r="D18">
-        <v>23451</v>
+        <v>24484</v>
       </c>
       <c r="E18" t="s">
-        <v>682</v>
+        <v>711</v>
       </c>
       <c r="I18" t="s">
-        <v>605</v>
-      </c>
-      <c r="K18" t="s">
-        <v>561</v>
+        <v>712</v>
       </c>
       <c r="M18" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="O18" t="s">
-        <v>684</v>
+        <v>563</v>
       </c>
       <c r="Q18" t="s">
         <v>531</v>
       </c>
       <c r="S18" t="s">
-        <v>685</v>
+        <v>618</v>
       </c>
       <c r="T18" t="s">
         <v>533</v>
       </c>
       <c r="U18" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="X18">
-        <v>48000</v>
+        <v>6000</v>
       </c>
       <c r="Y18">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="Z18" t="s">
         <v>534</v>
       </c>
       <c r="AA18" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="AB18" t="s">
         <v>653</v>
       </c>
       <c r="AC18" t="s">
-        <v>537</v>
+        <v>714</v>
       </c>
       <c r="AE18" t="s">
         <v>538</v>
       </c>
       <c r="AI18" t="s">
-        <v>236</v>
+        <v>555</v>
       </c>
       <c r="AJ18" t="s">
         <v>540</v>
@@ -9330,10 +9338,16 @@
         <v>541</v>
       </c>
       <c r="AM18" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="AV18" t="s">
-        <v>544</v>
+        <v>715</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>542</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="19" spans="1:75" x14ac:dyDescent="0.2">
@@ -9341,67 +9355,64 @@
         <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="C19" t="s">
-        <v>686</v>
+        <v>733</v>
       </c>
       <c r="D19">
-        <v>24498</v>
+        <v>23334</v>
       </c>
       <c r="E19" t="s">
-        <v>687</v>
+        <v>734</v>
       </c>
       <c r="I19" t="s">
-        <v>688</v>
-      </c>
-      <c r="J19" t="s">
-        <v>689</v>
+        <v>735</v>
       </c>
       <c r="M19" t="s">
-        <v>690</v>
-      </c>
-      <c r="N19" t="s">
-        <v>691</v>
+        <v>736</v>
       </c>
       <c r="O19" t="s">
-        <v>692</v>
+        <v>530</v>
       </c>
       <c r="Q19" t="s">
         <v>531</v>
       </c>
       <c r="S19" t="s">
-        <v>693</v>
+        <v>737</v>
+      </c>
+      <c r="T19" t="s">
+        <v>738</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>18</v>
+        <v>250</v>
       </c>
       <c r="Z19" t="s">
         <v>534</v>
       </c>
       <c r="AA19" t="s">
-        <v>694</v>
+        <v>577</v>
       </c>
       <c r="AB19" t="s">
-        <v>553</v>
+        <v>739</v>
       </c>
       <c r="AC19" t="s">
         <v>608</v>
       </c>
       <c r="AE19" t="s">
-        <v>568</v>
+        <v>661</v>
       </c>
       <c r="AI19" t="s">
-        <v>695</v>
+        <v>655</v>
       </c>
       <c r="AJ19" t="s">
         <v>540</v>
@@ -9410,22 +9421,25 @@
         <v>541</v>
       </c>
       <c r="AM19" t="s">
-        <v>556</v>
+        <v>609</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>740</v>
       </c>
       <c r="AV19" t="s">
-        <v>589</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>265</v>
-      </c>
-      <c r="BN19" t="s">
-        <v>266</v>
-      </c>
-      <c r="BO19" t="s">
-        <v>267</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>268</v>
+        <v>544</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>611</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>741</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>742</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="1:75" x14ac:dyDescent="0.2">
@@ -9433,70 +9447,67 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="C20" t="s">
-        <v>696</v>
+        <v>744</v>
       </c>
       <c r="D20">
-        <v>23439</v>
+        <v>23344</v>
       </c>
       <c r="E20" t="s">
-        <v>333</v>
+        <v>745</v>
       </c>
       <c r="I20" t="s">
-        <v>697</v>
-      </c>
-      <c r="K20" t="s">
-        <v>594</v>
+        <v>746</v>
       </c>
       <c r="M20" t="s">
-        <v>698</v>
+        <v>311</v>
+      </c>
+      <c r="N20" t="s">
+        <v>747</v>
       </c>
       <c r="O20" t="s">
-        <v>563</v>
+        <v>311</v>
+      </c>
+      <c r="P20" t="s">
+        <v>748</v>
       </c>
       <c r="Q20" t="s">
-        <v>617</v>
+        <v>531</v>
       </c>
       <c r="S20" t="s">
-        <v>618</v>
-      </c>
-      <c r="T20" t="s">
-        <v>533</v>
-      </c>
-      <c r="U20" t="s">
-        <v>576</v>
+        <v>693</v>
       </c>
       <c r="V20">
-        <v>13574</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>7892</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>1237</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="s">
         <v>534</v>
       </c>
       <c r="AA20" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="AB20" t="s">
-        <v>536</v>
+        <v>739</v>
       </c>
       <c r="AC20" t="s">
-        <v>672</v>
+        <v>537</v>
       </c>
       <c r="AE20" t="s">
         <v>538</v>
       </c>
       <c r="AI20" t="s">
-        <v>236</v>
+        <v>655</v>
       </c>
       <c r="AJ20" t="s">
         <v>540</v>
@@ -9505,16 +9516,22 @@
         <v>541</v>
       </c>
       <c r="AM20" t="s">
-        <v>556</v>
+        <v>609</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>749</v>
       </c>
       <c r="AV20" t="s">
         <v>544</v>
       </c>
+      <c r="BB20" t="s">
+        <v>580</v>
+      </c>
       <c r="BC20" t="s">
-        <v>699</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>700</v>
+        <v>750</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="21" spans="1:75" x14ac:dyDescent="0.2">
@@ -9522,67 +9539,70 @@
         <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>336</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s">
-        <v>701</v>
+        <v>591</v>
       </c>
       <c r="D21">
-        <v>23803</v>
+        <v>23388</v>
       </c>
       <c r="E21" t="s">
-        <v>702</v>
+        <v>592</v>
       </c>
       <c r="I21" t="s">
-        <v>703</v>
+        <v>593</v>
+      </c>
+      <c r="K21" t="s">
+        <v>594</v>
       </c>
       <c r="M21" t="s">
-        <v>704</v>
+        <v>595</v>
       </c>
       <c r="O21" t="s">
-        <v>705</v>
+        <v>596</v>
+      </c>
+      <c r="P21" t="s">
+        <v>597</v>
       </c>
       <c r="Q21" t="s">
         <v>531</v>
       </c>
       <c r="S21" t="s">
-        <v>706</v>
+        <v>598</v>
       </c>
       <c r="T21" t="s">
         <v>533</v>
       </c>
       <c r="U21" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
       <c r="W21">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="s">
         <v>534</v>
       </c>
       <c r="AA21" t="s">
-        <v>707</v>
+        <v>577</v>
       </c>
       <c r="AB21" t="s">
-        <v>653</v>
+        <v>536</v>
       </c>
       <c r="AC21" t="s">
-        <v>708</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>661</v>
+        <v>600</v>
       </c>
       <c r="AI21" t="s">
-        <v>236</v>
+        <v>555</v>
       </c>
       <c r="AJ21" t="s">
         <v>540</v>
@@ -9593,23 +9613,17 @@
       <c r="AM21" t="s">
         <v>556</v>
       </c>
+      <c r="AO21" t="s">
+        <v>601</v>
+      </c>
       <c r="AV21" t="s">
-        <v>544</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>285</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>286</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>153</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>287</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>288</v>
+        <v>589</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>580</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:75" x14ac:dyDescent="0.2">
@@ -9617,64 +9631,64 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>709</v>
+        <v>372</v>
       </c>
       <c r="C22" t="s">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="D22">
-        <v>24484</v>
+        <v>24500</v>
       </c>
       <c r="E22" t="s">
-        <v>711</v>
+        <v>776</v>
       </c>
       <c r="I22" t="s">
-        <v>712</v>
+        <v>777</v>
       </c>
       <c r="M22" t="s">
-        <v>713</v>
+        <v>778</v>
       </c>
       <c r="O22" t="s">
-        <v>563</v>
+        <v>573</v>
+      </c>
+      <c r="P22" t="s">
+        <v>779</v>
       </c>
       <c r="Q22" t="s">
-        <v>531</v>
+        <v>617</v>
       </c>
       <c r="S22" t="s">
-        <v>618</v>
+        <v>780</v>
       </c>
       <c r="T22" t="s">
         <v>533</v>
       </c>
       <c r="U22" t="s">
-        <v>587</v>
+        <v>781</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="X22">
-        <v>6000</v>
+        <v>300</v>
       </c>
       <c r="Y22">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="Z22" t="s">
         <v>534</v>
       </c>
       <c r="AA22" t="s">
-        <v>565</v>
+        <v>782</v>
       </c>
       <c r="AB22" t="s">
-        <v>653</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>714</v>
+        <v>620</v>
       </c>
       <c r="AE22" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="AI22" t="s">
         <v>555</v>
@@ -9686,16 +9700,16 @@
         <v>541</v>
       </c>
       <c r="AM22" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="AV22" t="s">
-        <v>715</v>
+        <v>544</v>
       </c>
       <c r="BB22" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="BC22" t="s">
-        <v>716</v>
+        <v>783</v>
       </c>
     </row>
     <row r="23" spans="1:75" x14ac:dyDescent="0.2">
@@ -9703,64 +9717,64 @@
         <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="C23" t="s">
-        <v>717</v>
+        <v>775</v>
       </c>
       <c r="D23">
-        <v>23553</v>
+        <v>24500</v>
       </c>
       <c r="E23" t="s">
-        <v>718</v>
+        <v>776</v>
       </c>
       <c r="I23" t="s">
-        <v>719</v>
+        <v>777</v>
       </c>
       <c r="M23" t="s">
-        <v>720</v>
+        <v>778</v>
       </c>
       <c r="O23" t="s">
-        <v>563</v>
+        <v>573</v>
+      </c>
+      <c r="P23" t="s">
+        <v>779</v>
       </c>
       <c r="Q23" t="s">
         <v>617</v>
       </c>
       <c r="S23" t="s">
-        <v>721</v>
+        <v>780</v>
       </c>
       <c r="T23" t="s">
-        <v>619</v>
+        <v>533</v>
       </c>
       <c r="U23" t="s">
-        <v>576</v>
+        <v>781</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W23">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="X23">
-        <v>14000</v>
+        <v>300</v>
       </c>
       <c r="Y23">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="Z23" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="AA23" t="s">
-        <v>565</v>
+        <v>782</v>
       </c>
       <c r="AB23" t="s">
-        <v>653</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>714</v>
+        <v>620</v>
       </c>
       <c r="AE23" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="AI23" t="s">
         <v>555</v>
@@ -9774,20 +9788,20 @@
       <c r="AM23" t="s">
         <v>578</v>
       </c>
+      <c r="AO23" t="s">
+        <v>823</v>
+      </c>
       <c r="AV23" t="s">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="BB23" t="s">
-        <v>580</v>
+        <v>542</v>
       </c>
       <c r="BC23" t="s">
-        <v>722</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>723</v>
+        <v>824</v>
       </c>
       <c r="BE23" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
     </row>
     <row r="24" spans="1:75" x14ac:dyDescent="0.2">
@@ -9795,52 +9809,52 @@
         <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="C24" t="s">
-        <v>725</v>
+        <v>696</v>
       </c>
       <c r="D24">
-        <v>23342</v>
+        <v>23439</v>
       </c>
       <c r="E24" t="s">
-        <v>726</v>
+        <v>333</v>
       </c>
       <c r="I24" t="s">
-        <v>727</v>
+        <v>697</v>
+      </c>
+      <c r="K24" t="s">
+        <v>594</v>
       </c>
       <c r="M24" t="s">
-        <v>311</v>
-      </c>
-      <c r="N24" t="s">
-        <v>728</v>
+        <v>698</v>
       </c>
       <c r="O24" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="Q24" t="s">
-        <v>531</v>
+        <v>617</v>
       </c>
       <c r="S24" t="s">
-        <v>729</v>
+        <v>618</v>
       </c>
       <c r="T24" t="s">
-        <v>619</v>
+        <v>533</v>
       </c>
       <c r="U24" t="s">
         <v>576</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>13574</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>7892</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1237</v>
       </c>
       <c r="Z24" t="s">
         <v>534</v>
@@ -9848,14 +9862,17 @@
       <c r="AA24" t="s">
         <v>565</v>
       </c>
+      <c r="AB24" t="s">
+        <v>536</v>
+      </c>
       <c r="AC24" t="s">
         <v>672</v>
       </c>
       <c r="AE24" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="AI24" t="s">
-        <v>655</v>
+        <v>236</v>
       </c>
       <c r="AJ24" t="s">
         <v>540</v>
@@ -9864,22 +9881,16 @@
         <v>541</v>
       </c>
       <c r="AM24" t="s">
-        <v>609</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>730</v>
+        <v>556</v>
       </c>
       <c r="AV24" t="s">
         <v>544</v>
       </c>
-      <c r="BB24" t="s">
-        <v>580</v>
-      </c>
       <c r="BC24" t="s">
-        <v>731</v>
+        <v>699</v>
       </c>
       <c r="BE24" t="s">
-        <v>732</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:75" x14ac:dyDescent="0.2">
@@ -9887,34 +9898,37 @@
         <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>364</v>
+        <v>277</v>
       </c>
       <c r="C25" t="s">
-        <v>733</v>
+        <v>662</v>
       </c>
       <c r="D25">
-        <v>23334</v>
+        <v>23356</v>
       </c>
       <c r="E25" t="s">
-        <v>734</v>
+        <v>663</v>
       </c>
       <c r="I25" t="s">
-        <v>735</v>
+        <v>658</v>
+      </c>
+      <c r="K25" t="s">
+        <v>659</v>
       </c>
       <c r="M25" t="s">
-        <v>736</v>
-      </c>
-      <c r="O25" t="s">
-        <v>530</v>
+        <v>664</v>
       </c>
       <c r="Q25" t="s">
         <v>531</v>
       </c>
       <c r="S25" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="T25" t="s">
-        <v>738</v>
+        <v>533</v>
+      </c>
+      <c r="U25" t="s">
+        <v>599</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -9926,25 +9940,25 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="s">
         <v>534</v>
       </c>
       <c r="AA25" t="s">
-        <v>577</v>
+        <v>535</v>
       </c>
       <c r="AB25" t="s">
-        <v>739</v>
+        <v>553</v>
       </c>
       <c r="AC25" t="s">
-        <v>608</v>
+        <v>666</v>
       </c>
       <c r="AE25" t="s">
-        <v>661</v>
+        <v>538</v>
       </c>
       <c r="AI25" t="s">
-        <v>655</v>
+        <v>555</v>
       </c>
       <c r="AJ25" t="s">
         <v>540</v>
@@ -9953,10 +9967,10 @@
         <v>541</v>
       </c>
       <c r="AM25" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
       <c r="AO25" t="s">
-        <v>740</v>
+        <v>667</v>
       </c>
       <c r="AV25" t="s">
         <v>544</v>
@@ -9965,13 +9979,7 @@
         <v>611</v>
       </c>
       <c r="BC25" t="s">
-        <v>741</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>742</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>743</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:75" x14ac:dyDescent="0.2">
@@ -9979,43 +9987,40 @@
         <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>364</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>744</v>
+        <v>526</v>
       </c>
       <c r="D26">
-        <v>23344</v>
+        <v>23375</v>
       </c>
       <c r="E26" t="s">
-        <v>745</v>
+        <v>527</v>
       </c>
       <c r="I26" t="s">
-        <v>746</v>
+        <v>528</v>
       </c>
       <c r="M26" t="s">
-        <v>311</v>
-      </c>
-      <c r="N26" t="s">
-        <v>747</v>
+        <v>529</v>
       </c>
       <c r="O26" t="s">
-        <v>311</v>
-      </c>
-      <c r="P26" t="s">
-        <v>748</v>
+        <v>530</v>
       </c>
       <c r="Q26" t="s">
         <v>531</v>
       </c>
       <c r="S26" t="s">
-        <v>693</v>
+        <v>532</v>
+      </c>
+      <c r="T26" t="s">
+        <v>533</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -10030,7 +10035,7 @@
         <v>535</v>
       </c>
       <c r="AB26" t="s">
-        <v>739</v>
+        <v>536</v>
       </c>
       <c r="AC26" t="s">
         <v>537</v>
@@ -10039,7 +10044,7 @@
         <v>538</v>
       </c>
       <c r="AI26" t="s">
-        <v>655</v>
+        <v>539</v>
       </c>
       <c r="AJ26" t="s">
         <v>540</v>
@@ -10048,22 +10053,19 @@
         <v>541</v>
       </c>
       <c r="AM26" t="s">
-        <v>609</v>
+        <v>542</v>
       </c>
       <c r="AO26" t="s">
-        <v>749</v>
+        <v>543</v>
       </c>
       <c r="AV26" t="s">
         <v>544</v>
       </c>
       <c r="BB26" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="BC26" t="s">
-        <v>750</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>751</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:75" x14ac:dyDescent="0.2">
@@ -10071,64 +10073,88 @@
         <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>364</v>
+        <v>247</v>
       </c>
       <c r="C27" t="s">
-        <v>752</v>
+        <v>626</v>
       </c>
       <c r="D27">
-        <v>23336</v>
+        <v>23729</v>
       </c>
       <c r="E27" t="s">
-        <v>753</v>
+        <v>627</v>
       </c>
       <c r="I27" t="s">
-        <v>735</v>
+        <v>628</v>
       </c>
       <c r="M27" t="s">
-        <v>754</v>
+        <v>629</v>
       </c>
       <c r="O27" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="Q27" t="s">
         <v>531</v>
       </c>
       <c r="S27" t="s">
-        <v>737</v>
+        <v>575</v>
       </c>
       <c r="T27" t="s">
-        <v>738</v>
+        <v>619</v>
+      </c>
+      <c r="U27" t="s">
+        <v>587</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="Y27">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="s">
         <v>534</v>
       </c>
       <c r="AA27" t="s">
-        <v>652</v>
+        <v>577</v>
       </c>
       <c r="AB27" t="s">
-        <v>739</v>
+        <v>620</v>
       </c>
       <c r="AC27" t="s">
-        <v>608</v>
+        <v>537</v>
       </c>
       <c r="AE27" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="AI27" t="s">
-        <v>655</v>
+        <v>555</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>540</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>609</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>630</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>631</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>580</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.2">
@@ -10136,37 +10162,28 @@
         <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>364</v>
+        <v>547</v>
       </c>
       <c r="C28" t="s">
-        <v>755</v>
+        <v>548</v>
       </c>
       <c r="D28">
-        <v>23340</v>
+        <v>24461</v>
       </c>
       <c r="E28" t="s">
-        <v>756</v>
+        <v>549</v>
       </c>
       <c r="I28" t="s">
-        <v>757</v>
+        <v>550</v>
       </c>
       <c r="M28" t="s">
-        <v>758</v>
-      </c>
-      <c r="O28" t="s">
-        <v>759</v>
-      </c>
-      <c r="P28" t="s">
-        <v>760</v>
+        <v>551</v>
       </c>
       <c r="Q28" t="s">
         <v>531</v>
       </c>
       <c r="S28" t="s">
-        <v>761</v>
-      </c>
-      <c r="T28" t="s">
-        <v>738</v>
+        <v>552</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -10178,25 +10195,40 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="s">
         <v>534</v>
       </c>
       <c r="AA28" t="s">
-        <v>652</v>
+        <v>535</v>
       </c>
       <c r="AB28" t="s">
         <v>553</v>
       </c>
       <c r="AC28" t="s">
-        <v>608</v>
+        <v>554</v>
       </c>
       <c r="AE28" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="AI28" t="s">
-        <v>655</v>
+        <v>555</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>540</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>556</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>544</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:75" x14ac:dyDescent="0.2">
@@ -10204,64 +10236,13 @@
         <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>364</v>
+        <v>441</v>
       </c>
       <c r="C29" t="s">
-        <v>762</v>
+        <v>836</v>
       </c>
       <c r="D29">
-        <v>23332</v>
-      </c>
-      <c r="E29" t="s">
-        <v>763</v>
-      </c>
-      <c r="I29" t="s">
-        <v>735</v>
-      </c>
-      <c r="M29" t="s">
-        <v>764</v>
-      </c>
-      <c r="O29" t="s">
-        <v>765</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>531</v>
-      </c>
-      <c r="S29" t="s">
-        <v>761</v>
-      </c>
-      <c r="T29" t="s">
-        <v>738</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>18</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>534</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>577</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>553</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>608</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>568</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>655</v>
+        <v>23370</v>
       </c>
     </row>
     <row r="30" spans="1:75" x14ac:dyDescent="0.2">
@@ -10269,37 +10250,37 @@
         <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>364</v>
+        <v>277</v>
       </c>
       <c r="C30" t="s">
-        <v>766</v>
+        <v>668</v>
       </c>
       <c r="D30">
-        <v>23338</v>
+        <v>23358</v>
       </c>
       <c r="E30" t="s">
-        <v>767</v>
+        <v>669</v>
       </c>
       <c r="I30" t="s">
-        <v>757</v>
+        <v>670</v>
+      </c>
+      <c r="K30" t="s">
+        <v>659</v>
       </c>
       <c r="M30" t="s">
-        <v>758</v>
-      </c>
-      <c r="O30" t="s">
-        <v>759</v>
-      </c>
-      <c r="P30" t="s">
-        <v>768</v>
+        <v>551</v>
       </c>
       <c r="Q30" t="s">
         <v>531</v>
       </c>
       <c r="S30" t="s">
-        <v>769</v>
+        <v>671</v>
       </c>
       <c r="T30" t="s">
-        <v>738</v>
+        <v>533</v>
+      </c>
+      <c r="U30" t="s">
+        <v>599</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -10311,28 +10292,25 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="s">
         <v>534</v>
       </c>
       <c r="AA30" t="s">
-        <v>652</v>
+        <v>535</v>
       </c>
       <c r="AB30" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="AC30" t="s">
-        <v>770</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>771</v>
+        <v>672</v>
       </c>
       <c r="AE30" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="AI30" t="s">
-        <v>655</v>
+        <v>555</v>
       </c>
       <c r="AJ30" t="s">
         <v>540</v>
@@ -10344,22 +10322,16 @@
         <v>578</v>
       </c>
       <c r="AO30" t="s">
-        <v>772</v>
+        <v>673</v>
       </c>
       <c r="AV30" t="s">
-        <v>715</v>
+        <v>589</v>
       </c>
       <c r="BB30" t="s">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="BC30" t="s">
-        <v>773</v>
-      </c>
-      <c r="BD30" t="s">
-        <v>774</v>
-      </c>
-      <c r="BE30" t="s">
-        <v>732</v>
+        <v>674</v>
       </c>
     </row>
     <row r="31" spans="1:75" x14ac:dyDescent="0.2">
@@ -10367,85 +10339,13 @@
         <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="C31" t="s">
-        <v>775</v>
+        <v>833</v>
       </c>
       <c r="D31">
-        <v>24500</v>
-      </c>
-      <c r="E31" t="s">
-        <v>776</v>
-      </c>
-      <c r="I31" t="s">
-        <v>777</v>
-      </c>
-      <c r="M31" t="s">
-        <v>778</v>
-      </c>
-      <c r="O31" t="s">
-        <v>573</v>
-      </c>
-      <c r="P31" t="s">
-        <v>779</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>617</v>
-      </c>
-      <c r="S31" t="s">
-        <v>780</v>
-      </c>
-      <c r="T31" t="s">
-        <v>533</v>
-      </c>
-      <c r="U31" t="s">
-        <v>781</v>
-      </c>
-      <c r="V31">
-        <v>25</v>
-      </c>
-      <c r="W31">
-        <v>5</v>
-      </c>
-      <c r="X31">
-        <v>300</v>
-      </c>
-      <c r="Y31">
-        <v>8</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>534</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>782</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>620</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>568</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>555</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>540</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>578</v>
-      </c>
-      <c r="AV31" t="s">
-        <v>544</v>
-      </c>
-      <c r="BB31" t="s">
-        <v>611</v>
-      </c>
-      <c r="BC31" t="s">
-        <v>783</v>
+        <v>24515</v>
       </c>
     </row>
     <row r="32" spans="1:75" x14ac:dyDescent="0.2">
@@ -10561,7 +10461,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -10569,25 +10469,25 @@
         <v>405</v>
       </c>
       <c r="C33" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D33">
-        <v>23408</v>
+        <v>23406</v>
       </c>
       <c r="E33" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="I33" t="s">
-        <v>792</v>
+        <v>719</v>
       </c>
       <c r="K33" t="s">
-        <v>659</v>
+        <v>561</v>
       </c>
       <c r="M33" t="s">
         <v>786</v>
       </c>
       <c r="O33" t="s">
-        <v>573</v>
+        <v>787</v>
       </c>
       <c r="P33" t="s">
         <v>779</v>
@@ -10596,28 +10496,31 @@
         <v>531</v>
       </c>
       <c r="S33" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="T33" t="s">
-        <v>619</v>
+        <v>533</v>
       </c>
       <c r="U33" t="s">
-        <v>781</v>
+        <v>576</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X33">
-        <v>650</v>
+        <v>1300</v>
       </c>
       <c r="Y33">
         <v>30</v>
       </c>
+      <c r="Z33" t="s">
+        <v>534</v>
+      </c>
       <c r="AA33" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="AB33" t="s">
         <v>620</v>
@@ -10638,19 +10541,25 @@
         <v>541</v>
       </c>
       <c r="AM33" t="s">
-        <v>542</v>
+        <v>578</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>825</v>
       </c>
       <c r="AV33" t="s">
-        <v>608</v>
+        <v>644</v>
       </c>
       <c r="BB33" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="BC33" t="s">
-        <v>795</v>
+        <v>826</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>732</v>
       </c>
     </row>
-    <row r="34" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -10658,64 +10567,64 @@
         <v>405</v>
       </c>
       <c r="C34" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D34">
-        <v>23410</v>
+        <v>23408</v>
       </c>
       <c r="E34" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="I34" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="K34" t="s">
         <v>659</v>
       </c>
       <c r="M34" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="O34" t="s">
-        <v>530</v>
+        <v>573</v>
+      </c>
+      <c r="P34" t="s">
+        <v>779</v>
       </c>
       <c r="Q34" t="s">
         <v>531</v>
       </c>
       <c r="S34" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="T34" t="s">
-        <v>533</v>
+        <v>619</v>
       </c>
       <c r="U34" t="s">
-        <v>599</v>
+        <v>781</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X34">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="Y34">
-        <v>15</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>534</v>
+        <v>30</v>
       </c>
       <c r="AA34" t="s">
-        <v>565</v>
+        <v>794</v>
       </c>
       <c r="AB34" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="AC34" t="s">
         <v>537</v>
       </c>
       <c r="AE34" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="AI34" t="s">
         <v>555</v>
@@ -10727,93 +10636,87 @@
         <v>541</v>
       </c>
       <c r="AM34" t="s">
-        <v>609</v>
+        <v>542</v>
       </c>
       <c r="AV34" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="BB34" t="s">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="BC34" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
-    <row r="35" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>802</v>
+        <v>405</v>
       </c>
       <c r="C35" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="D35">
-        <v>24519</v>
+        <v>23408</v>
       </c>
       <c r="E35" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="I35" t="s">
-        <v>805</v>
-      </c>
-      <c r="J35" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="K35" t="s">
-        <v>807</v>
-      </c>
-      <c r="L35" t="s">
-        <v>808</v>
+        <v>659</v>
       </c>
       <c r="M35" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="O35" t="s">
-        <v>311</v>
+        <v>573</v>
       </c>
       <c r="P35" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="Q35" t="s">
         <v>531</v>
       </c>
       <c r="S35" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="T35" t="s">
-        <v>533</v>
+        <v>619</v>
+      </c>
+      <c r="U35" t="s">
+        <v>781</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>534</v>
+        <v>30</v>
       </c>
       <c r="AA35" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="AB35" t="s">
-        <v>566</v>
+        <v>620</v>
       </c>
       <c r="AC35" t="s">
-        <v>813</v>
+        <v>537</v>
       </c>
       <c r="AE35" t="s">
         <v>538</v>
       </c>
       <c r="AI35" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="AJ35" t="s">
         <v>540</v>
@@ -10822,60 +10725,57 @@
         <v>541</v>
       </c>
       <c r="AM35" t="s">
-        <v>609</v>
+        <v>578</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>827</v>
       </c>
       <c r="AV35" t="s">
-        <v>544</v>
+        <v>644</v>
       </c>
       <c r="BB35" t="s">
-        <v>611</v>
+        <v>542</v>
       </c>
       <c r="BC35" t="s">
-        <v>801</v>
+        <v>828</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>829</v>
       </c>
     </row>
-    <row r="36" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>446</v>
+        <v>192</v>
       </c>
       <c r="C36" t="s">
-        <v>814</v>
+        <v>603</v>
       </c>
       <c r="D36">
-        <v>23562</v>
+        <v>23385</v>
       </c>
       <c r="E36" t="s">
-        <v>815</v>
+        <v>604</v>
       </c>
       <c r="I36" t="s">
-        <v>550</v>
+        <v>605</v>
       </c>
       <c r="K36" t="s">
-        <v>816</v>
+        <v>606</v>
       </c>
       <c r="M36" t="s">
         <v>551</v>
       </c>
-      <c r="O36" t="s">
-        <v>563</v>
-      </c>
       <c r="Q36" t="s">
         <v>531</v>
       </c>
       <c r="S36" t="s">
-        <v>817</v>
-      </c>
-      <c r="T36" t="s">
-        <v>533</v>
-      </c>
-      <c r="U36" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -10887,19 +10787,19 @@
         <v>0</v>
       </c>
       <c r="Z36" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="AA36" t="s">
-        <v>794</v>
+        <v>577</v>
       </c>
       <c r="AB36" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="AC36" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="AE36" t="s">
-        <v>654</v>
+        <v>568</v>
       </c>
       <c r="AI36" t="s">
         <v>555</v>
@@ -10911,57 +10811,54 @@
         <v>541</v>
       </c>
       <c r="AM36" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="AO36" t="s">
-        <v>818</v>
+        <v>610</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>544</v>
       </c>
       <c r="BB36" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="BC36" t="s">
-        <v>819</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="37" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
       <c r="C37" t="s">
-        <v>820</v>
+        <v>752</v>
       </c>
       <c r="D37">
-        <v>23566</v>
+        <v>23336</v>
       </c>
       <c r="E37" t="s">
-        <v>821</v>
+        <v>753</v>
       </c>
       <c r="I37" t="s">
-        <v>822</v>
-      </c>
-      <c r="K37" t="s">
-        <v>816</v>
+        <v>735</v>
       </c>
       <c r="M37" t="s">
-        <v>551</v>
+        <v>754</v>
       </c>
       <c r="O37" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="Q37" t="s">
         <v>531</v>
       </c>
       <c r="S37" t="s">
-        <v>618</v>
+        <v>737</v>
       </c>
       <c r="T37" t="s">
-        <v>533</v>
-      </c>
-      <c r="U37" t="s">
-        <v>641</v>
+        <v>738</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -10973,203 +10870,161 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z37" t="s">
         <v>534</v>
       </c>
       <c r="AA37" t="s">
-        <v>794</v>
+        <v>652</v>
       </c>
       <c r="AB37" t="s">
-        <v>620</v>
+        <v>739</v>
       </c>
       <c r="AC37" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="AE37" t="s">
-        <v>654</v>
+        <v>568</v>
       </c>
       <c r="AI37" t="s">
-        <v>555</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>540</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>542</v>
-      </c>
-      <c r="BC37" t="s">
-        <v>819</v>
+        <v>655</v>
       </c>
     </row>
-    <row r="38" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C38" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="D38">
-        <v>24500</v>
+        <v>23340</v>
       </c>
       <c r="E38" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="I38" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="M38" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="O38" t="s">
-        <v>573</v>
+        <v>759</v>
       </c>
       <c r="P38" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="Q38" t="s">
-        <v>617</v>
+        <v>531</v>
       </c>
       <c r="S38" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="T38" t="s">
-        <v>533</v>
-      </c>
-      <c r="U38" t="s">
-        <v>781</v>
+        <v>738</v>
       </c>
       <c r="V38">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="Z38" t="s">
         <v>534</v>
       </c>
       <c r="AA38" t="s">
-        <v>782</v>
+        <v>652</v>
       </c>
       <c r="AB38" t="s">
-        <v>620</v>
+        <v>553</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>608</v>
       </c>
       <c r="AE38" t="s">
         <v>568</v>
       </c>
       <c r="AI38" t="s">
-        <v>555</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>540</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>578</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>823</v>
-      </c>
-      <c r="AV38" t="s">
-        <v>644</v>
-      </c>
-      <c r="BB38" t="s">
-        <v>542</v>
-      </c>
-      <c r="BC38" t="s">
-        <v>824</v>
-      </c>
-      <c r="BE38" t="s">
-        <v>732</v>
+        <v>655</v>
       </c>
     </row>
-    <row r="39" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="C39" t="s">
-        <v>784</v>
+        <v>686</v>
       </c>
       <c r="D39">
-        <v>23406</v>
+        <v>24498</v>
       </c>
       <c r="E39" t="s">
-        <v>785</v>
+        <v>687</v>
       </c>
       <c r="I39" t="s">
-        <v>719</v>
-      </c>
-      <c r="K39" t="s">
-        <v>561</v>
+        <v>688</v>
+      </c>
+      <c r="J39" t="s">
+        <v>689</v>
       </c>
       <c r="M39" t="s">
-        <v>786</v>
+        <v>690</v>
+      </c>
+      <c r="N39" t="s">
+        <v>691</v>
       </c>
       <c r="O39" t="s">
-        <v>787</v>
-      </c>
-      <c r="P39" t="s">
-        <v>779</v>
+        <v>692</v>
       </c>
       <c r="Q39" t="s">
         <v>531</v>
       </c>
       <c r="S39" t="s">
-        <v>788</v>
-      </c>
-      <c r="T39" t="s">
-        <v>533</v>
-      </c>
-      <c r="U39" t="s">
-        <v>576</v>
+        <v>693</v>
       </c>
       <c r="V39">
         <v>0</v>
       </c>
       <c r="W39">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X39">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="Y39">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Z39" t="s">
         <v>534</v>
       </c>
       <c r="AA39" t="s">
-        <v>782</v>
+        <v>694</v>
       </c>
       <c r="AB39" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="AC39" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="AE39" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="AI39" t="s">
-        <v>555</v>
+        <v>695</v>
       </c>
       <c r="AJ39" t="s">
         <v>540</v>
@@ -11178,143 +11033,110 @@
         <v>541</v>
       </c>
       <c r="AM39" t="s">
-        <v>578</v>
-      </c>
-      <c r="AO39" t="s">
-        <v>825</v>
+        <v>556</v>
       </c>
       <c r="AV39" t="s">
-        <v>644</v>
-      </c>
-      <c r="BB39" t="s">
-        <v>611</v>
-      </c>
-      <c r="BC39" t="s">
-        <v>826</v>
-      </c>
-      <c r="BE39" t="s">
-        <v>732</v>
+        <v>589</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>265</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>266</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>267</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="C40" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="D40">
-        <v>23408</v>
+        <v>23332</v>
       </c>
       <c r="E40" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="I40" t="s">
-        <v>792</v>
-      </c>
-      <c r="K40" t="s">
-        <v>659</v>
+        <v>735</v>
       </c>
       <c r="M40" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="O40" t="s">
-        <v>573</v>
-      </c>
-      <c r="P40" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="Q40" t="s">
         <v>531</v>
       </c>
       <c r="S40" t="s">
-        <v>793</v>
+        <v>761</v>
       </c>
       <c r="T40" t="s">
-        <v>619</v>
-      </c>
-      <c r="U40" t="s">
-        <v>781</v>
+        <v>738</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
       <c r="W40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>534</v>
       </c>
       <c r="AA40" t="s">
-        <v>794</v>
+        <v>577</v>
       </c>
       <c r="AB40" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="AC40" t="s">
-        <v>537</v>
+        <v>608</v>
       </c>
       <c r="AE40" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="AI40" t="s">
-        <v>555</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>540</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>578</v>
-      </c>
-      <c r="AO40" t="s">
-        <v>827</v>
-      </c>
-      <c r="AV40" t="s">
-        <v>644</v>
-      </c>
-      <c r="BB40" t="s">
-        <v>542</v>
-      </c>
-      <c r="BC40" t="s">
-        <v>828</v>
-      </c>
-      <c r="BE40" t="s">
-        <v>829</v>
+        <v>655</v>
       </c>
     </row>
-    <row r="41" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>405</v>
+        <v>214</v>
       </c>
       <c r="C41" t="s">
-        <v>796</v>
+        <v>622</v>
       </c>
       <c r="D41">
-        <v>23410</v>
+        <v>23363</v>
       </c>
       <c r="E41" t="s">
-        <v>797</v>
+        <v>623</v>
       </c>
       <c r="I41" t="s">
-        <v>798</v>
-      </c>
-      <c r="K41" t="s">
-        <v>659</v>
+        <v>550</v>
       </c>
       <c r="M41" t="s">
-        <v>799</v>
+        <v>624</v>
       </c>
       <c r="O41" t="s">
         <v>530</v>
@@ -11323,158 +11145,194 @@
         <v>531</v>
       </c>
       <c r="S41" t="s">
-        <v>800</v>
-      </c>
-      <c r="T41" t="s">
-        <v>533</v>
-      </c>
-      <c r="U41" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="W41">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>15</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>534</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="AB41" t="s">
         <v>553</v>
       </c>
       <c r="AC41" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="AE41" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="AI41" t="s">
         <v>555</v>
       </c>
-      <c r="AJ41" t="s">
-        <v>540</v>
-      </c>
-      <c r="AK41" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM41" t="s">
-        <v>609</v>
-      </c>
-      <c r="AV41" t="s">
-        <v>830</v>
-      </c>
-      <c r="BB41" t="s">
-        <v>611</v>
-      </c>
-      <c r="BC41" t="s">
-        <v>831</v>
-      </c>
-      <c r="BD41" t="s">
-        <v>832</v>
-      </c>
-      <c r="BE41" t="s">
-        <v>732</v>
-      </c>
     </row>
-    <row r="42" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="C42" t="s">
-        <v>833</v>
+        <v>796</v>
       </c>
       <c r="D42">
-        <v>24515</v>
+        <v>23410</v>
+      </c>
+      <c r="E42" t="s">
+        <v>797</v>
+      </c>
+      <c r="I42" t="s">
+        <v>798</v>
+      </c>
+      <c r="K42" t="s">
+        <v>659</v>
+      </c>
+      <c r="M42" t="s">
+        <v>799</v>
+      </c>
+      <c r="O42" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>531</v>
+      </c>
+      <c r="S42" t="s">
+        <v>800</v>
+      </c>
+      <c r="T42" t="s">
+        <v>533</v>
+      </c>
+      <c r="U42" t="s">
+        <v>599</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>9</v>
+      </c>
+      <c r="X42">
+        <v>150</v>
+      </c>
+      <c r="Y42">
+        <v>15</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>565</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>568</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>555</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>540</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>609</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>544</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>611</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>801</v>
       </c>
     </row>
-    <row r="43" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>802</v>
+        <v>405</v>
       </c>
       <c r="C43" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D43">
-        <v>24519</v>
+        <v>23410</v>
       </c>
       <c r="E43" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="I43" t="s">
-        <v>805</v>
-      </c>
-      <c r="J43" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="K43" t="s">
-        <v>807</v>
-      </c>
-      <c r="L43" t="s">
-        <v>808</v>
+        <v>659</v>
       </c>
       <c r="M43" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="O43" t="s">
-        <v>311</v>
-      </c>
-      <c r="P43" t="s">
-        <v>810</v>
+        <v>530</v>
       </c>
       <c r="Q43" t="s">
         <v>531</v>
       </c>
       <c r="S43" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="T43" t="s">
         <v>533</v>
       </c>
+      <c r="U43" t="s">
+        <v>599</v>
+      </c>
       <c r="V43">
         <v>0</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z43" t="s">
         <v>534</v>
       </c>
       <c r="AA43" t="s">
-        <v>812</v>
+        <v>565</v>
       </c>
       <c r="AB43" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="AC43" t="s">
-        <v>813</v>
+        <v>537</v>
       </c>
       <c r="AE43" t="s">
-        <v>538</v>
+        <v>568</v>
       </c>
       <c r="AI43" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="AJ43" t="s">
         <v>540</v>
@@ -11486,82 +11344,235 @@
         <v>609</v>
       </c>
       <c r="AV43" t="s">
-        <v>644</v>
+        <v>830</v>
       </c>
       <c r="BB43" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="BC43" t="s">
-        <v>612</v>
+        <v>831</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>832</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>732</v>
       </c>
     </row>
-    <row r="44" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>834</v>
+        <v>446</v>
       </c>
       <c r="C44" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="D44">
-        <v>23378</v>
+        <v>23566</v>
+      </c>
+      <c r="E44" t="s">
+        <v>821</v>
+      </c>
+      <c r="I44" t="s">
+        <v>822</v>
+      </c>
+      <c r="K44" t="s">
+        <v>816</v>
+      </c>
+      <c r="M44" t="s">
+        <v>551</v>
+      </c>
+      <c r="O44" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>531</v>
+      </c>
+      <c r="S44" t="s">
+        <v>618</v>
+      </c>
+      <c r="T44" t="s">
+        <v>533</v>
+      </c>
+      <c r="U44" t="s">
+        <v>641</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>794</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>620</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>654</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>555</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>540</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>542</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>819</v>
       </c>
     </row>
-    <row r="45" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C45" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="D45">
-        <v>23370</v>
+        <v>23566</v>
+      </c>
+      <c r="E45" t="s">
+        <v>821</v>
+      </c>
+      <c r="I45" t="s">
+        <v>822</v>
+      </c>
+      <c r="K45" t="s">
+        <v>816</v>
+      </c>
+      <c r="M45" t="s">
+        <v>551</v>
+      </c>
+      <c r="O45" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>531</v>
+      </c>
+      <c r="S45" t="s">
+        <v>618</v>
+      </c>
+      <c r="T45" t="s">
+        <v>533</v>
+      </c>
+      <c r="U45" t="s">
+        <v>641</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>794</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>620</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>654</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>555</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>540</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>542</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>839</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>544</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>542</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>838</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>732</v>
       </c>
     </row>
-    <row r="46" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>446</v>
+        <v>364</v>
       </c>
       <c r="C46" t="s">
-        <v>814</v>
+        <v>766</v>
       </c>
       <c r="D46">
-        <v>23562</v>
+        <v>23338</v>
       </c>
       <c r="E46" t="s">
-        <v>815</v>
+        <v>767</v>
       </c>
       <c r="I46" t="s">
-        <v>550</v>
-      </c>
-      <c r="K46" t="s">
-        <v>816</v>
+        <v>757</v>
       </c>
       <c r="M46" t="s">
-        <v>551</v>
+        <v>758</v>
       </c>
       <c r="O46" t="s">
-        <v>563</v>
+        <v>759</v>
+      </c>
+      <c r="P46" t="s">
+        <v>768</v>
       </c>
       <c r="Q46" t="s">
         <v>531</v>
       </c>
       <c r="S46" t="s">
-        <v>817</v>
+        <v>769</v>
       </c>
       <c r="T46" t="s">
-        <v>533</v>
-      </c>
-      <c r="U46" t="s">
-        <v>641</v>
+        <v>738</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -11573,25 +11584,28 @@
         <v>0</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z46" t="s">
         <v>534</v>
       </c>
       <c r="AA46" t="s">
-        <v>794</v>
+        <v>652</v>
       </c>
       <c r="AB46" t="s">
-        <v>620</v>
+        <v>566</v>
       </c>
       <c r="AC46" t="s">
-        <v>537</v>
+        <v>770</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>771</v>
       </c>
       <c r="AE46" t="s">
-        <v>654</v>
+        <v>568</v>
       </c>
       <c r="AI46" t="s">
-        <v>555</v>
+        <v>655</v>
       </c>
       <c r="AJ46" t="s">
         <v>540</v>
@@ -11600,66 +11614,60 @@
         <v>541</v>
       </c>
       <c r="AM46" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="AO46" t="s">
-        <v>837</v>
+        <v>772</v>
       </c>
       <c r="AV46" t="s">
-        <v>544</v>
+        <v>715</v>
       </c>
       <c r="BB46" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="BC46" t="s">
-        <v>838</v>
+        <v>773</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>774</v>
       </c>
       <c r="BE46" t="s">
         <v>732</v>
       </c>
-      <c r="CB46" t="s">
-        <v>541</v>
-      </c>
     </row>
-    <row r="47" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:74" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>446</v>
-      </c>
-      <c r="C47" t="s">
-        <v>820</v>
+        <v>277</v>
       </c>
       <c r="D47">
-        <v>23566</v>
+        <v>23351</v>
       </c>
       <c r="E47" t="s">
-        <v>821</v>
+        <v>675</v>
       </c>
       <c r="I47" t="s">
-        <v>822</v>
+        <v>676</v>
       </c>
       <c r="K47" t="s">
-        <v>816</v>
+        <v>659</v>
       </c>
       <c r="M47" t="s">
-        <v>551</v>
-      </c>
-      <c r="O47" t="s">
-        <v>563</v>
+        <v>677</v>
       </c>
       <c r="Q47" t="s">
         <v>531</v>
       </c>
       <c r="S47" t="s">
-        <v>618</v>
+        <v>678</v>
       </c>
       <c r="T47" t="s">
         <v>533</v>
       </c>
       <c r="U47" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -11677,13 +11685,13 @@
         <v>534</v>
       </c>
       <c r="AA47" t="s">
-        <v>794</v>
+        <v>535</v>
       </c>
       <c r="AB47" t="s">
         <v>620</v>
       </c>
       <c r="AC47" t="s">
-        <v>537</v>
+        <v>666</v>
       </c>
       <c r="AE47" t="s">
         <v>654</v>
@@ -11701,22 +11709,19 @@
         <v>542</v>
       </c>
       <c r="AO47" t="s">
-        <v>839</v>
+        <v>679</v>
       </c>
       <c r="AV47" t="s">
-        <v>544</v>
+        <v>680</v>
       </c>
       <c r="BB47" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="BC47" t="s">
-        <v>838</v>
-      </c>
-      <c r="BE47" t="s">
-        <v>732</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="48" spans="1:80" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:74" x14ac:dyDescent="0.2">
       <c r="BJ48" t="s">
         <v>841</v>
       </c>
@@ -11731,6 +11736,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CC48">
+    <sortCondition ref="C1:C48"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>